--- a/src/Results/article550_graph_fixed_8-20.xlsx
+++ b/src/Results/article550_graph_fixed_8-20.xlsx
@@ -50,11 +50,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -70,6 +71,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF0066B3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,8 +123,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -128,6 +141,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066B3"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -138,7 +211,7 @@
   </sheetPr>
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E56" activeCellId="0" sqref="E56"/>
     </sheetView>
   </sheetViews>
@@ -146,7 +219,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.41"/>
@@ -1219,7 +1292,7 @@
       <c r="D56" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56" s="1" t="n">
         <v>0.396771013737</v>
       </c>
       <c r="F56" s="0" t="n">
